--- a/test.xlsx
+++ b/test.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F629D095-09A6-4AB2-A8DD-ECE09F880546}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>AA</t>
   </si>
@@ -52,12 +53,81 @@
   </si>
   <si>
     <t>CD</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>row14</t>
+  </si>
+  <si>
+    <t>row15</t>
+  </si>
+  <si>
+    <t>row16</t>
+  </si>
+  <si>
+    <t>row17</t>
+  </si>
+  <si>
+    <t>row18</t>
+  </si>
+  <si>
+    <t>row8</t>
+  </si>
+  <si>
+    <t>row9</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,6 +168,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -146,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,9 +252,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,6 +304,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -389,16 +496,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,8 +518,20 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -425,8 +544,20 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -438,6 +569,86 @@
       </c>
       <c r="D3" t="s">
         <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -446,7 +657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -460,7 +671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
